--- a/biology/Botanique/Rhoipteleaceae/Rhoipteleaceae.xlsx
+++ b/biology/Botanique/Rhoipteleaceae/Rhoipteleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Rhoiptéléacées est une famille de plantes dicotylédones qui comprend une espèce, Rhoiptelea chiliantha.
 Ce sont des arbres à feuilles composées, alternes, caduques, à glandes résineuses, à inflorescences axillaires présentant des fleurs hermaphrodites au centre et des fleurs femelles sur le pourtour ; ils sont originaires des régions subtropicales à tropicales du sud de la Chine et du Vietnam.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Rhoiptelea, qui dérive du latin rhoïcus, « appartenant à un sumac (Rhus) », et du grec ancien πτελεα / ptelea, « orme (Ulmus)  »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Rhoiptelea, qui dérive du latin rhoïcus, « appartenant à un sumac (Rhus) », et du grec ancien πτελεα / ptelea, « orme (Ulmus)  ».
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] situe cette famille dans l'ordre des Fagales.
-En classification phylogénétique APG II (2003)[3], cette famille est optionnelle: cette espèce peut aussi être incluse dans les Juglandacées.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide ; cette espèce est incorporée dans la famille Juglandaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) situe cette famille dans l'ordre des Fagales.
+En classification phylogénétique APG II (2003), cette famille est optionnelle: cette espèce peut aussi être incluse dans les Juglandacées.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Juglandaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010)[5] et DELTA Angio           (19 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010) et DELTA Angio           (19 mai 2010) :
 genre Rhoiptelea Diels &amp; Hand.-Mazz.</t>
         </is>
       </c>
